--- a/tools/static/tools/files/TOOL_W3_Drukverlies.xlsx
+++ b/tools/static/tools/files/TOOL_W3_Drukverlies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\190889\Desktop\stevenbaxontwerpt\website\tools\static\tools\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E658F7B-AA8A-42D1-AB51-AD5C825BBAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1826D47F-5BD9-4319-9488-EFB4DF259B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{8847EBB2-8FE0-45D5-84B6-F2668849CAE1}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8847EBB2-8FE0-45D5-84B6-F2668849CAE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="buis_binnendiameter">'[1]Data buis'!$F$70</definedName>
     <definedName name="buis_inwendige_wandruwheid">'[1]Data buis'!$T$70</definedName>
-    <definedName name="medium_Reynolds">Blad1!$K$6</definedName>
+    <definedName name="medium_Reynolds">Blad1!$L$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,8 +43,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t xml:space="preserve">Input </t>
   </si>
@@ -126,15 +148,119 @@
     <t>Kinematische viscositeit</t>
   </si>
   <si>
-    <t xml:space="preserve">wandruwheid </t>
-  </si>
-  <si>
-    <t>*aanname Draadbuis EN 10255M (DIN 2440)</t>
+    <t>λ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dichtheid water </t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>Pa</t>
+  </si>
+  <si>
+    <t>ρ [kg/m3]</t>
   </si>
   <si>
     <r>
-      <t>*aanname water @20</t>
+      <t>T [</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.6"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>C]</t>
+    </r>
+  </si>
+  <si>
+    <t>ν [m2/s]</t>
+  </si>
+  <si>
+    <t>η [Pa*s]</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <r>
+      <t>T [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.6"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>C]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> input</t>
+    </r>
+  </si>
+  <si>
+    <t>Vmax</t>
+  </si>
+  <si>
+    <t>m/s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wandruwheid </t>
+  </si>
+  <si>
+    <t>Reynolds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lambda </t>
+  </si>
+  <si>
+    <t>Pa/m</t>
+  </si>
+  <si>
+    <t>Temperatuur Medium</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -155,41 +281,37 @@
     </r>
   </si>
   <si>
-    <t>λ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dichtheid water </t>
-  </si>
-  <si>
-    <t>Reynolds getal</t>
-  </si>
-  <si>
-    <t>Lambda</t>
-  </si>
-  <si>
-    <t>Totale drukval</t>
-  </si>
-  <si>
-    <t>mm</t>
-  </si>
-  <si>
-    <t>Pa</t>
-  </si>
-  <si>
-    <t>Δp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">achtergrond berekeningen </t>
+    <t>Type Buis</t>
+  </si>
+  <si>
+    <t>Draadbuis EN 10255M (DIN 2440)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Uitgebreide invoer</t>
+  </si>
+  <si>
+    <t>Gegevens</t>
+  </si>
+  <si>
+    <t>mengverhouding</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>G/W</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;???_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
@@ -265,7 +387,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -353,12 +475,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -378,20 +552,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -410,16 +620,1237 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Water</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13919075845429016"/>
+          <c:y val="3.2407407407407406E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.7254416889196509E-2"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.73479170409918115"/>
+          <c:h val="0.72125801983085447"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$C$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ρ [kg/m3]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad1!$B$34:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$C$34:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>999.79</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>999.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>999.65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>998.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>995.59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>992.17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>988.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>983.13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>977.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>971.81</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>965.34</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>958.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3DAA-44C9-8EFE-B4E085B86029}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="416971455"/>
+        <c:axId val="416969055"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$D$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ν [m2/s]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad1!$B$34:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$D$34:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.7918999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5707000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3081E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0022999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>7.9999999999999996E-7</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>6.5909999999999997E-7</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>5.5410000000000002E-7</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00E+00">
+                  <c:v>4.7360000000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>4.1160000000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>3.6390000000000002E-7</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>3.248E-7</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00E+00">
+                  <c:v>2.938E-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3DAA-44C9-8EFE-B4E085B86029}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="552782015"/>
+        <c:axId val="552794495"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="416971455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="416969055"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="416969055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="416971455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="552794495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="552782015"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="552782015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="552794495"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27709236323597486"/>
+          <c:y val="7.8630796150481195E-4"/>
+          <c:w val="0.46297035521870472"/>
+          <c:h val="0.19328813065033537"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$C$9" horiz="1" max="1000" page="10" val="23"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$C$9" horiz="1" max="1000" page="10" val="21"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$D$11" horiz="1" max="100" page="10" val="20"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$D$11" horiz="1" max="100" page="10" val="15"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$C$16" horiz="1" max="1000" page="10" val="9"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$C$16" horiz="1" max="1000" page="10"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -434,8 +1865,8 @@
           <xdr:rowOff>238125</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>1085850</xdr:colOff>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>514106</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
@@ -484,8 +1915,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>1066800</xdr:colOff>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>495056</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -534,8 +1965,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>1047750</xdr:colOff>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>476006</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
@@ -574,6 +2005,42 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>260104</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>167055</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>248867</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>174870</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{021C2610-5D9A-0DFD-2EC5-61EA3F121868}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -961,51 +2428,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3111D3FF-4900-4CC7-BBE8-3346567EDD8A}">
-  <dimension ref="B2:K33"/>
+  <dimension ref="B2:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="78" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="8" max="8" width="28.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="36.28515625" customWidth="1"/>
-    <col min="14" max="14" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="11" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" customWidth="1"/>
+    <col min="15" max="15" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:13" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="4"/>
       <c r="C5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="3"/>
       <c r="C6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1015,57 +2485,61 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="10"/>
-      <c r="J8" s="21" t="s">
+      <c r="I8" s="25"/>
+      <c r="K8" s="18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="19">
-        <v>23.7</v>
+      <c r="C9" s="17">
+        <v>21.7</v>
       </c>
       <c r="H9" s="12"/>
-      <c r="J9" t="s">
+      <c r="I9" s="25"/>
+      <c r="K9" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="20">
+      <c r="L9" s="42">
         <f>((PI()*(C9*10^-3)^2)/4)*C11*3600</f>
-        <v>2.2233974837695119</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2.6628202163680159</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
       <c r="H10" s="12"/>
-      <c r="J10" t="s">
+      <c r="I10" s="25"/>
+      <c r="K10" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="20">
-        <f>K9/3.6*60</f>
-        <v>37.056624729491858</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="42">
+        <f>L9/3.6*60</f>
+        <v>44.380336939466929</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="19">
-        <v>1.4</v>
+      <c r="C11" s="17">
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H11" s="12"/>
-      <c r="J11" t="s">
+      <c r="I11" s="25"/>
+      <c r="K11" t="s">
         <v>10</v>
       </c>
-      <c r="K11" s="20">
-        <f>K9/3.6</f>
-        <v>0.61761041215819767</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L11" s="42">
+        <f>L9/3.6</f>
+        <v>0.73967228232444882</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -1073,10 +2547,22 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
-    </row>
-    <row r="13" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I12" s="25"/>
+    </row>
+    <row r="13" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="5">
+        <f>3*SQRT(C9*10^-3)</f>
+        <v>0.44192759587968711</v>
+      </c>
+      <c r="M13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="16"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1084,27 +2570,29 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="10"/>
-      <c r="J15" s="1" t="s">
+      <c r="I15" s="25"/>
+      <c r="K15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="19">
-        <v>9</v>
+      <c r="C16" s="17">
+        <v>1</v>
       </c>
       <c r="H16" s="12"/>
-      <c r="J16" t="s">
+      <c r="I16" s="25"/>
+      <c r="K16" t="s">
         <v>1</v>
       </c>
-      <c r="K16" s="5">
-        <f>D28</f>
-        <v>8.6882266665916585E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L16" s="5">
+        <f>L17/100</f>
+        <v>2.3140584547349703E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -1112,166 +2600,600 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="15"/>
-      <c r="J17" t="s">
+      <c r="I17" s="25"/>
+      <c r="K17" t="s">
         <v>13</v>
       </c>
-      <c r="K17" s="5">
-        <f>D27</f>
-        <v>8.6882266665916585</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
+      <c r="L17" s="5">
+        <f>L18/1000</f>
+        <v>2.3140584547349703</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="K18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="26">
+        <f>H24*(C16/(C9/1000))*0.5*H20*C11^2</f>
+        <v>2314.0584547349704</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="K19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" s="26">
+        <f>L18/C16</f>
+        <v>2314.0584547349704</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="36">
+        <f>D22*G28+H28</f>
+        <v>999.79</v>
+      </c>
+      <c r="I20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="35">
+        <f>D22*G29+H29</f>
+        <v>1.7918999999999997E-6</v>
+      </c>
+      <c r="I21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="17">
+        <v>0</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="35">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="32">
+        <f>(C9/1000)*C11/H21</f>
+        <v>24220.101568167869</v>
+      </c>
+      <c r="I23" s="34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F24" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="33">
+        <f>((-2*LOG(((H22/1000)/(3.72*C9/1000))+(5.74/(H23^0.901))))^-1)^2</f>
+        <v>2.5112807923538375E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="C27" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C28" s="6">
+        <f>INDEX(B34:C45,MATCH(D22,B34:B45,1),1)</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="6">
+        <f>INDEX(B34:C45,MATCH(D22,B34:B45,1),2)</f>
+        <v>999.79</v>
+      </c>
+      <c r="E28" s="6">
+        <f>INDEX(B34:D45,MATCH(D22,B34:B45,1),3)</f>
+        <v>1.7918999999999999E-6</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="6" cm="1">
+        <f t="array" ref="G28:H28">LINEST(D28:D29,C28:C29,)</f>
+        <v>4.5000000000015916E-2</v>
+      </c>
+      <c r="H28" s="6">
+        <v>999.79</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="6" cm="1">
+        <f t="array" ref="C29">INDEX(B34:C45,MATCH(D22,B34:B45,1)+1,1)</f>
+        <v>4</v>
+      </c>
+      <c r="D29" s="6" cm="1">
+        <f t="array" ref="D29">INDEX(B34:C45,MATCH(D22,B34:B45,1)+1,2)</f>
+        <v>999.97</v>
+      </c>
+      <c r="E29" s="6" cm="1">
+        <f t="array" ref="E29">INDEX(B34:D45,MATCH(D22,B34:B45,1)+1,3)</f>
+        <v>1.5707000000000001E-6</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="6" cm="1">
+        <f t="array" ref="G29:H29">LINEST(E28:E29,C28:C29,TRUE)</f>
+        <v>-5.5299999999999972E-8</v>
+      </c>
+      <c r="H29" s="6">
+        <v>1.7918999999999997E-6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C30" s="19"/>
+      <c r="D30" s="7"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+    </row>
+    <row r="31" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="23"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+    </row>
+    <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="6"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34" s="11">
+        <v>999.79</v>
+      </c>
+      <c r="D34" s="25">
+        <v>1.7918999999999999E-6</v>
+      </c>
+      <c r="E34" s="12">
+        <f t="shared" ref="E34:E45" si="0">D34*C34</f>
+        <v>1.791523701E-3</v>
+      </c>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" s="11">
+        <v>999.97</v>
+      </c>
+      <c r="D35" s="25">
+        <v>1.5707000000000001E-6</v>
+      </c>
+      <c r="E35" s="12">
+        <f t="shared" si="0"/>
+        <v>1.570652879E-3</v>
+      </c>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36" s="11">
+        <v>999.65</v>
+      </c>
+      <c r="D36" s="25">
+        <v>1.3081E-6</v>
+      </c>
+      <c r="E36" s="12">
+        <f t="shared" si="0"/>
+        <v>1.3076421649999999E-3</v>
+      </c>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37">
         <v>20</v>
       </c>
-      <c r="C21" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="17">
-        <f>1.0084*10^-6</f>
-        <v>1.0084E-6</v>
-      </c>
-      <c r="E21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="17">
-        <v>4.4999999999999997E-3</v>
-      </c>
-      <c r="E22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23">
-        <v>997.3</v>
-      </c>
-      <c r="E23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="18">
-        <f>(C9/1000)*C11/D21</f>
-        <v>32903.609678698922</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="26">
-        <f>((-2*LOG(((D22/1000)/(3.72*C9/1000))+(5.74/(D24^0.901))))^-1)^2</f>
-        <v>2.3409119816045539E-2</v>
-      </c>
-      <c r="E25" s="22"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="23">
-        <f>D25*(C16/(C9/1000))*0.5*D23*C11^2</f>
-        <v>8688.2266665916577</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="C37" s="11">
+        <v>998.16</v>
+      </c>
+      <c r="D37" s="25">
+        <v>1.0022999999999999E-6</v>
+      </c>
+      <c r="E37" s="12">
+        <f>D37*C37</f>
+        <v>1.0004557679999999E-3</v>
+      </c>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="7">
-        <f>D26/1000</f>
-        <v>8.6882266665916585</v>
-      </c>
-      <c r="E27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="7">
-        <f>D27/100</f>
-        <v>8.6882266665916585E-2</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D29" s="7"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C30" s="6"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C31" s="6"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="6"/>
+      <c r="C38" s="11">
+        <v>995.59</v>
+      </c>
+      <c r="D38" s="41">
+        <v>7.9999999999999996E-7</v>
+      </c>
+      <c r="E38" s="12">
+        <f t="shared" si="0"/>
+        <v>7.96472E-4</v>
+      </c>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>40</v>
+      </c>
+      <c r="C39" s="11">
+        <v>992.17</v>
+      </c>
+      <c r="D39" s="41">
+        <v>6.5909999999999997E-7</v>
+      </c>
+      <c r="E39" s="12">
+        <f t="shared" si="0"/>
+        <v>6.5393924699999996E-4</v>
+      </c>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>50</v>
+      </c>
+      <c r="C40" s="11">
+        <v>988.04</v>
+      </c>
+      <c r="D40" s="41">
+        <v>5.5410000000000002E-7</v>
+      </c>
+      <c r="E40" s="12">
+        <f t="shared" si="0"/>
+        <v>5.4747296399999996E-4</v>
+      </c>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="25"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>60</v>
+      </c>
+      <c r="C41" s="11">
+        <v>983.13</v>
+      </c>
+      <c r="D41" s="41">
+        <v>4.7360000000000001E-7</v>
+      </c>
+      <c r="E41" s="12">
+        <f t="shared" si="0"/>
+        <v>4.6561036800000003E-4</v>
+      </c>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>70</v>
+      </c>
+      <c r="C42" s="11">
+        <v>977.7</v>
+      </c>
+      <c r="D42" s="41">
+        <v>4.1160000000000001E-7</v>
+      </c>
+      <c r="E42" s="12">
+        <f t="shared" si="0"/>
+        <v>4.0242132000000005E-4</v>
+      </c>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="25"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>80</v>
+      </c>
+      <c r="C43" s="11">
+        <v>971.81</v>
+      </c>
+      <c r="D43" s="41">
+        <v>3.6390000000000002E-7</v>
+      </c>
+      <c r="E43" s="12">
+        <f t="shared" si="0"/>
+        <v>3.5364165899999999E-4</v>
+      </c>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="25"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>90</v>
+      </c>
+      <c r="C44" s="11">
+        <v>965.34</v>
+      </c>
+      <c r="D44" s="41">
+        <v>3.248E-7</v>
+      </c>
+      <c r="E44" s="12">
+        <f t="shared" si="0"/>
+        <v>3.13542432E-4</v>
+      </c>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="25"/>
+    </row>
+    <row r="45" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>100</v>
+      </c>
+      <c r="C45" s="13">
+        <v>958.4</v>
+      </c>
+      <c r="D45" s="20">
+        <v>2.938E-7</v>
+      </c>
+      <c r="E45" s="15">
+        <f t="shared" si="0"/>
+        <v>2.8157791999999999E-4</v>
+      </c>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="25"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="C23:E23"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1025" r:id="rId3" name="Scroll Bar 1">
+            <control shapeId="1025" r:id="rId4" name="Scroll Bar 1">
               <controlPr defaultSize="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -1281,8 +3203,8 @@
                     <xdr:rowOff>238125</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>1085850</xdr:colOff>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>238125</xdr:rowOff>
                   </to>
@@ -1293,7 +3215,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1026" r:id="rId4" name="Scroll Bar 2">
+            <control shapeId="1026" r:id="rId5" name="Scroll Bar 2">
               <controlPr defaultSize="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -1303,8 +3225,8 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>1066800</xdr:colOff>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>504825</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -1315,7 +3237,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1027" r:id="rId5" name="Scroll Bar 3">
+            <control shapeId="1027" r:id="rId6" name="Scroll Bar 3">
               <controlPr defaultSize="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -1325,8 +3247,8 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>1047750</xdr:colOff>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>485775</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>47625</xdr:rowOff>
                   </to>
